--- a/biology/Biochimie/Pyruvate_synthase/Pyruvate_synthase.xlsx
+++ b/biology/Biochimie/Pyruvate_synthase/Pyruvate_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pyruvate synthase, ou pyruvate:ferrédoxine oxydoréductase, est une oxydoréductase qui catalyse la réaction :
 CoA + pyruvate + 2 ferrédoxines oxydées  
         ⇌
     {\displaystyle \rightleftharpoons }
   acétyl-CoA + CO2 + 2 ferrédoxines réduites + 2 H+.
-Cette enzyme est une protéine fer-soufre qui contient des clusters [4Fe-4S] et a pour cofacteur de la thiamine pyrophosphate. Elle intervient notamment dans les métabolismes du pyruvate, du propionate, du butyrate, et prolonge la voie de Wood-Ljungdahl de fixation non-photosynthétique du CO2 vers la biosynthèse des trioses phosphate. Elle a une structure dimérique[1] , chaque monomère comprenant six domaines liant une molécule de thiamine pyrophosphate et trois clusters [4Fe-4S][2].
+Cette enzyme est une protéine fer-soufre qui contient des clusters [4Fe-4S] et a pour cofacteur de la thiamine pyrophosphate. Elle intervient notamment dans les métabolismes du pyruvate, du propionate, du butyrate, et prolonge la voie de Wood-Ljungdahl de fixation non-photosynthétique du CO2 vers la biosynthèse des trioses phosphate. Elle a une structure dimérique , chaque monomère comprenant six domaines liant une molécule de thiamine pyrophosphate et trois clusters [4Fe-4S].
 </t>
         </is>
       </c>
